--- a/biology/Zoologie/Ctenophila_setiliris/Ctenophila_setiliris.xlsx
+++ b/biology/Zoologie/Ctenophila_setiliris/Ctenophila_setiliris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenophila setiliris est une espèce de mollusque gastéropode terrestre de la famille des euconulidés. Elle constitue un représentant de la faune endémique de La Réunion[1], La Réunion étant une île française de l'océan Indien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenophila setiliris est une espèce de mollusque gastéropode terrestre de la famille des euconulidés. Elle constitue un représentant de la faune endémique de La Réunion, La Réunion étant une île française de l'océan Indien.
 </t>
         </is>
       </c>
